--- a/inst/extdata/agmip_protocol_template.xlsx
+++ b/inst/extdata/agmip_protocol_template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E634AAEF-3A22-4B16-A8C5-C97E847D7F70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D085DCDE-130F-475F-972F-81A637D10B91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10908" tabRatio="414" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10905" tabRatio="414" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="5" r:id="rId1"/>
@@ -152,12 +152,13 @@
     <t>You can add extra sheets for your own notes or additional information. CroptimizR will only process the recognized sheets (variables, major_parameters, candidate_parameters, fixed_or_computed_parameters) and will ignore any others.</t>
   </si>
   <si>
+    <t>For full documentation, see: vignette("agmip_calibration_protocol", package = "CroptimizR")</t>
+  </si>
+  <si>
     <t>The order of the groups defines the order of the associated calibration steps in step 6 of the AgMIP protocol.
-Currently, variable names for observed and simulated variables must be identical.
+Group names can be freely chosen by the user.
+At present, the names of observed and simulated variables must be identical and must match the variable names returned by the model wrapper.
 Column description is optional (not used by CroptimizR), the other are required.</t>
-  </si>
-  <si>
-    <t>For full documentation, see: vignette("agmip_calibration_protocol", package = "CroptimizR")</t>
   </si>
 </sst>
 </file>
@@ -550,52 +551,52 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="6" max="6" width="72.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -615,7 +616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
@@ -632,10 +633,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>28</v>
       </c>
@@ -655,7 +656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>30</v>
       </c>
@@ -675,7 +676,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>32</v>
       </c>
@@ -708,14 +709,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,17 +727,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
   </sheetData>
@@ -753,19 +754,19 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -785,11 +786,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F4" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
   </sheetData>
@@ -806,18 +807,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -837,48 +838,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F8" s="3"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F9" s="3"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F10" s="3"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F11" s="3"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="F14" s="3"/>
     </row>
@@ -896,15 +897,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="5" customWidth="1"/>
-    <col min="3" max="3" width="65.5546875" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -919,70 +920,70 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="9"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
